--- a/biology/Botanique/Pavot_arctique/Pavot_arctique.xlsx
+++ b/biology/Botanique/Pavot_arctique/Pavot_arctique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papaver radicatum
-Le pavot arctique (Papaver radicatum) est une plante de la famille des Papavéracées poussant dans les régions arctiques  et les zones alpines d'Europe, d'Amerique du Nord et d'Asie. Il se rencontre notamment sur l'île de Kaffeklubben, la terre émergée la plus proche du Pôle Nord, en compagnie de Saxifraga oppositifolia, à une latitude de 83° N, ce qui en fait les plantes les plus septentrionales du monde[2].
+Le pavot arctique (Papaver radicatum) est une plante de la famille des Papavéracées poussant dans les régions arctiques  et les zones alpines d'Europe, d'Amerique du Nord et d'Asie. Il se rencontre notamment sur l'île de Kaffeklubben, la terre émergée la plus proche du Pôle Nord, en compagnie de Saxifraga oppositifolia, à une latitude de 83° N, ce qui en fait les plantes les plus septentrionales du monde.
 </t>
         </is>
       </c>
